--- a/backstage-manager/backstage-web/src/main/resources/excel/sift.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/sift.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\yuantao\backstage-manager\backstage-web\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="323">
   <si>
     <t>提交id</t>
   </si>
@@ -256,9 +261,6 @@
   </si>
   <si>
     <t>16-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>16-3检测中共有几处不符合要求？(单选）</t>
   </si>
   <si>
     <t>16-3得分</t>
@@ -761,269 +763,282 @@
     <t>${li.topic16Two}</t>
   </si>
   <si>
+    <t>${li.th16sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic18One}</t>
+  </si>
+  <si>
+    <t>${li.th18mark}</t>
+  </si>
+  <si>
+    <t>${li.topic18Two}</t>
+  </si>
+  <si>
+    <t>${li.topic19One}</t>
+  </si>
+  <si>
+    <t>${li.th19mark}</t>
+  </si>
+  <si>
+    <t>${li.topic19Two}</t>
+  </si>
+  <si>
+    <t>${li.topic20One}</t>
+  </si>
+  <si>
+    <t>${li.th20mark}</t>
+  </si>
+  <si>
+    <t>${li.topic20Two}</t>
+  </si>
+  <si>
+    <t>${li.topic21One}</t>
+  </si>
+  <si>
+    <t>${li.th21mark}</t>
+  </si>
+  <si>
+    <t>${li.topic21Two}</t>
+  </si>
+  <si>
+    <t>${li.topic22One}</t>
+  </si>
+  <si>
+    <t>${li.th22mark}</t>
+  </si>
+  <si>
+    <t>${li.topic22Two}</t>
+  </si>
+  <si>
+    <t>${li.topic23One}</t>
+  </si>
+  <si>
+    <t>${li.th23mark}</t>
+  </si>
+  <si>
+    <t>${li.topic23Two}</t>
+  </si>
+  <si>
+    <t>${li.topic23Three}</t>
+  </si>
+  <si>
+    <t>${li.th23sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic23Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic24One}</t>
+  </si>
+  <si>
+    <t>${li.th24mark}</t>
+  </si>
+  <si>
+    <t>${li.topic24Two}</t>
+  </si>
+  <si>
+    <t>${li.topic25One}</t>
+  </si>
+  <si>
+    <t>${li.th25mark}</t>
+  </si>
+  <si>
+    <t>${li.topic25Two}</t>
+  </si>
+  <si>
+    <t>${li.topic26One}</t>
+  </si>
+  <si>
+    <t>${li.th26mark}</t>
+  </si>
+  <si>
+    <t>${li.topic26Two}</t>
+  </si>
+  <si>
+    <t>${li.topic27One}</t>
+  </si>
+  <si>
+    <t>${li.th27mark}</t>
+  </si>
+  <si>
+    <t>${li.topic27Two}</t>
+  </si>
+  <si>
+    <t>${li.topic28One}</t>
+  </si>
+  <si>
+    <t>${li.th28mark}</t>
+  </si>
+  <si>
+    <t>${li.topic28Two}</t>
+  </si>
+  <si>
+    <t>${li.topic29One}</t>
+  </si>
+  <si>
+    <t>${li.th29mark}</t>
+  </si>
+  <si>
+    <t>${li.topic29Two}</t>
+  </si>
+  <si>
+    <t>${li.topic30One}</t>
+  </si>
+  <si>
+    <t>${li.th30mark}</t>
+  </si>
+  <si>
+    <t>${li.topic30Two}</t>
+  </si>
+  <si>
+    <t>${li.topic31One}</t>
+  </si>
+  <si>
+    <t>${li.th31mark}</t>
+  </si>
+  <si>
+    <t>${li.topic31Two}</t>
+  </si>
+  <si>
+    <t>${li.topic32One}</t>
+  </si>
+  <si>
+    <t>${li.th32mark}</t>
+  </si>
+  <si>
+    <t>${li.topic32Two}</t>
+  </si>
+  <si>
+    <t>${li.topic33One}</t>
+  </si>
+  <si>
+    <t>${li.th33mark}</t>
+  </si>
+  <si>
+    <t>${li.topic33Two}</t>
+  </si>
+  <si>
+    <t>${li.topic34One}</t>
+  </si>
+  <si>
+    <t>${li.th34mark}</t>
+  </si>
+  <si>
+    <t>${li.topic34Two}</t>
+  </si>
+  <si>
+    <t>${li.topic35One}</t>
+  </si>
+  <si>
+    <t>${li.th35mark}</t>
+  </si>
+  <si>
+    <t>${li.topic35Two}</t>
+  </si>
+  <si>
+    <t>${li.topic36One}</t>
+  </si>
+  <si>
+    <t>${li.th36mark}</t>
+  </si>
+  <si>
+    <t>${li.topic36Two}</t>
+  </si>
+  <si>
+    <t>${li.topic37One}</t>
+  </si>
+  <si>
+    <t>${li.th37mark}</t>
+  </si>
+  <si>
+    <t>${li.topic37Two}</t>
+  </si>
+  <si>
+    <t>${li.topic38One}</t>
+  </si>
+  <si>
+    <t>${li.th38mark}</t>
+  </si>
+  <si>
+    <t>${li.topic38Two}</t>
+  </si>
+  <si>
+    <t>${li.topic39One}</t>
+  </si>
+  <si>
+    <t>${li.th39mark}</t>
+  </si>
+  <si>
+    <t>${li.topic39Two}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${li.topic22Three}</t>
+  </si>
+  <si>
+    <t>${li.th22sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic22Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic30Three}</t>
+  </si>
+  <si>
+    <t>${li.th30sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic30Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic17One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th17mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic17Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th17sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic17Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-3检测中共有几处不符合要求？(单选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-3检测中共有几处不符合要求？(单选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${li.topic16Three}</t>
-  </si>
-  <si>
-    <t>${li.th16sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic17Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic16Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic17One}</t>
-  </si>
-  <si>
-    <t>${li.th17mark}</t>
-  </si>
-  <si>
-    <t>${li.topic17Two}</t>
-  </si>
-  <si>
-    <t>${li.th17sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic17Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic18One}</t>
-  </si>
-  <si>
-    <t>${li.th18mark}</t>
-  </si>
-  <si>
-    <t>${li.topic18Two}</t>
-  </si>
-  <si>
-    <t>${li.topic19One}</t>
-  </si>
-  <si>
-    <t>${li.th19mark}</t>
-  </si>
-  <si>
-    <t>${li.topic19Two}</t>
-  </si>
-  <si>
-    <t>${li.topic20One}</t>
-  </si>
-  <si>
-    <t>${li.th20mark}</t>
-  </si>
-  <si>
-    <t>${li.topic20Two}</t>
-  </si>
-  <si>
-    <t>${li.topic21One}</t>
-  </si>
-  <si>
-    <t>${li.th21mark}</t>
-  </si>
-  <si>
-    <t>${li.topic21Two}</t>
-  </si>
-  <si>
-    <t>${li.topic22One}</t>
-  </si>
-  <si>
-    <t>${li.th22mark}</t>
-  </si>
-  <si>
-    <t>${li.topic22Two}</t>
-  </si>
-  <si>
-    <t>${li.topic23One}</t>
-  </si>
-  <si>
-    <t>${li.th23mark}</t>
-  </si>
-  <si>
-    <t>${li.topic23Two}</t>
-  </si>
-  <si>
-    <t>${li.topic23Three}</t>
-  </si>
-  <si>
-    <t>${li.th23sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic23Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic24One}</t>
-  </si>
-  <si>
-    <t>${li.th24mark}</t>
-  </si>
-  <si>
-    <t>${li.topic24Two}</t>
-  </si>
-  <si>
-    <t>${li.topic25One}</t>
-  </si>
-  <si>
-    <t>${li.th25mark}</t>
-  </si>
-  <si>
-    <t>${li.topic25Two}</t>
-  </si>
-  <si>
-    <t>${li.topic26One}</t>
-  </si>
-  <si>
-    <t>${li.th26mark}</t>
-  </si>
-  <si>
-    <t>${li.topic26Two}</t>
-  </si>
-  <si>
-    <t>${li.topic27One}</t>
-  </si>
-  <si>
-    <t>${li.th27mark}</t>
-  </si>
-  <si>
-    <t>${li.topic27Two}</t>
-  </si>
-  <si>
-    <t>${li.topic28One}</t>
-  </si>
-  <si>
-    <t>${li.th28mark}</t>
-  </si>
-  <si>
-    <t>${li.topic28Two}</t>
-  </si>
-  <si>
-    <t>${li.topic29One}</t>
-  </si>
-  <si>
-    <t>${li.th29mark}</t>
-  </si>
-  <si>
-    <t>${li.topic29Two}</t>
-  </si>
-  <si>
-    <t>${li.topic30One}</t>
-  </si>
-  <si>
-    <t>${li.th30mark}</t>
-  </si>
-  <si>
-    <t>${li.topic30Two}</t>
-  </si>
-  <si>
-    <t>${li.topic31One}</t>
-  </si>
-  <si>
-    <t>${li.th31mark}</t>
-  </si>
-  <si>
-    <t>${li.topic31Two}</t>
-  </si>
-  <si>
-    <t>${li.topic32One}</t>
-  </si>
-  <si>
-    <t>${li.th32mark}</t>
-  </si>
-  <si>
-    <t>${li.topic32Two}</t>
-  </si>
-  <si>
-    <t>${li.topic33One}</t>
-  </si>
-  <si>
-    <t>${li.th33mark}</t>
-  </si>
-  <si>
-    <t>${li.topic33Two}</t>
-  </si>
-  <si>
-    <t>${li.topic34One}</t>
-  </si>
-  <si>
-    <t>${li.th34mark}</t>
-  </si>
-  <si>
-    <t>${li.topic34Two}</t>
-  </si>
-  <si>
-    <t>${li.topic35One}</t>
-  </si>
-  <si>
-    <t>${li.th35mark}</t>
-  </si>
-  <si>
-    <t>${li.topic35Two}</t>
-  </si>
-  <si>
-    <t>${li.topic36One}</t>
-  </si>
-  <si>
-    <t>${li.th36mark}</t>
-  </si>
-  <si>
-    <t>${li.topic36Two}</t>
-  </si>
-  <si>
-    <t>${li.topic37One}</t>
-  </si>
-  <si>
-    <t>${li.th37mark}</t>
-  </si>
-  <si>
-    <t>${li.topic37Two}</t>
-  </si>
-  <si>
-    <t>${li.topic38One}</t>
-  </si>
-  <si>
-    <t>${li.th38mark}</t>
-  </si>
-  <si>
-    <t>${li.topic38Two}</t>
-  </si>
-  <si>
-    <t>${li.topic39One}</t>
-  </si>
-  <si>
-    <t>${li.th39mark}</t>
-  </si>
-  <si>
-    <t>${li.topic39Two}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${li.topic22Three}</t>
-  </si>
-  <si>
-    <t>${li.th22sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic22Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic30Three}</t>
-  </si>
-  <si>
-    <t>${li.th30sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic30Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,156 +1069,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,194 +1093,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1439,252 +1130,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,62 +1167,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2058,50 +1463,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:FA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="12.1111111111111" customWidth="1"/>
-    <col min="29" max="29" width="13.7777777777778" customWidth="1"/>
-    <col min="75" max="76" width="18.6666666666667" customWidth="1"/>
-    <col min="95" max="95" width="14.3333333333333" customWidth="1"/>
-    <col min="96" max="96" width="14.5555555555556" customWidth="1"/>
-    <col min="98" max="98" width="15.3333333333333" customWidth="1"/>
-    <col min="101" max="101" width="14" customWidth="1"/>
-    <col min="104" max="104" width="17.6666666666667" customWidth="1"/>
-    <col min="105" max="105" width="13.4444444444444" customWidth="1"/>
-    <col min="106" max="106" width="11.4444444444444" customWidth="1"/>
-    <col min="107" max="107" width="13.3333333333333" customWidth="1"/>
-    <col min="108" max="108" width="13.4444444444444" customWidth="1"/>
-    <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="13.4444444444444" customWidth="1"/>
-    <col min="112" max="112" width="13" customWidth="1"/>
-    <col min="122" max="122" width="19.6666666666667" customWidth="1"/>
-    <col min="123" max="123" width="15.1111111111111" customWidth="1"/>
-    <col min="128" max="128" width="20.8888888888889" customWidth="1"/>
-    <col min="131" max="131" width="14.6666666666667" customWidth="1"/>
-    <col min="134" max="134" width="19.1111111111111" customWidth="1"/>
-    <col min="140" max="140" width="22.2222222222222" customWidth="1"/>
-    <col min="143" max="143" width="23.8888888888889" customWidth="1"/>
-    <col min="146" max="146" width="19.7777777777778" customWidth="1"/>
-    <col min="149" max="149" width="21" customWidth="1"/>
-    <col min="152" max="152" width="24" customWidth="1"/>
-    <col min="155" max="155" width="20" customWidth="1"/>
+    <col min="2" max="5" width="19.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.77734375" customWidth="1"/>
+    <col min="75" max="76" width="18.6640625" customWidth="1"/>
+    <col min="96" max="96" width="14.33203125" customWidth="1"/>
+    <col min="97" max="97" width="14.5546875" customWidth="1"/>
+    <col min="99" max="99" width="15.33203125" customWidth="1"/>
+    <col min="102" max="102" width="14" customWidth="1"/>
+    <col min="105" max="105" width="17.6640625" customWidth="1"/>
+    <col min="106" max="106" width="13.44140625" customWidth="1"/>
+    <col min="107" max="107" width="11.44140625" customWidth="1"/>
+    <col min="108" max="108" width="13.33203125" customWidth="1"/>
+    <col min="109" max="109" width="13.44140625" customWidth="1"/>
+    <col min="111" max="111" width="13" customWidth="1"/>
+    <col min="112" max="112" width="13.44140625" customWidth="1"/>
+    <col min="113" max="113" width="13" customWidth="1"/>
+    <col min="123" max="123" width="19.6640625" customWidth="1"/>
+    <col min="124" max="124" width="15.109375" customWidth="1"/>
+    <col min="129" max="129" width="20.88671875" customWidth="1"/>
+    <col min="132" max="132" width="14.6640625" customWidth="1"/>
+    <col min="135" max="135" width="19.109375" customWidth="1"/>
+    <col min="141" max="141" width="22.21875" customWidth="1"/>
+    <col min="144" max="144" width="23.88671875" customWidth="1"/>
+    <col min="147" max="147" width="19.77734375" customWidth="1"/>
+    <col min="150" max="150" width="21" customWidth="1"/>
+    <col min="153" max="153" width="24" customWidth="1"/>
+    <col min="156" max="156" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:157">
+    <row r="1" spans="1:158" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2343,784 +1748,789 @@
         <v>79</v>
       </c>
       <c r="CC1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="CD1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CE1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CF1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CK1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CL1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CM1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CN1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CP1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CS1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CU1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CV1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CW1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CX1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DD1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="6" t="s">
+      <c r="DE1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="6" t="s">
+      <c r="DF1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="8" t="s">
+      <c r="DG1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DK1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DL1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DM1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="DN1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="DO1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="DP1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="6" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="DR1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="6" t="s">
+      <c r="DS1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="6" t="s">
+      <c r="DT1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="DU1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="6" t="s">
+      <c r="DV1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="6" t="s">
+      <c r="DW1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="7" t="s">
+      <c r="DX1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="6" t="s">
+      <c r="DY1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="6" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="EA1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="6" t="s">
+      <c r="EB1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="6" t="s">
+      <c r="EC1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="ED1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="6" t="s">
+      <c r="EE1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="6" t="s">
+      <c r="EF1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EG1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="6" t="s">
+      <c r="EH1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EI1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="EJ1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EK1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="6" t="s">
+      <c r="EL1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EM1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="6" t="s">
+      <c r="EN1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="EO1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EP1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="6" t="s">
+      <c r="ER1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="ES1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="ET1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="6" t="s">
+      <c r="EU1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="7" t="s">
+      <c r="EV1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="6" t="s">
+      <c r="EW1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="EX1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="7" t="s">
+      <c r="EY1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="FA1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="7" t="s">
+      <c r="FB1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:158" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DZ3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="EA3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="EB3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EF3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="EJ3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="EK3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="EL3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="EM3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="EN3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="EO3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="EP3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="EQ3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="ER3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="ES3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="ET3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="EU3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="EV3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="EW3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="FA3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="FB3" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:157">
-      <c r="A3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="DB3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="DI3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="EB3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="EJ3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="EK3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="EL3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="EM3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="EN3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="EO3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="EP3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="EQ3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="ER3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="ES3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="ET3" s="1" t="s">
+    <row r="4" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>306</v>
-      </c>
-      <c r="EU3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="EV3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="EW3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="EX3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="EY3" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="EZ3" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="FA3" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F9:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="18.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="28.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="23.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="14.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="21.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:11">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>